--- a/datasets/tree_DBH_hollows/input/Plot 05.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/From robyn/Thursday/plots/05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770B8D3F-B8CA-2B45-9990-40A30EBF4E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D239306C-A8C5-1C4D-99E5-AE2D4E615ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10100" yWindow="500" windowWidth="15660" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="16">
   <si>
     <t>Tree Number</t>
   </si>
@@ -65,57 +65,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
   </si>
   <si>
     <t>No corresponding number on the DBH sheet</t>
@@ -509,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCAA0E-3E0F-044F-9F2D-06DBCE6934B6}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -556,766 +505,877 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>173</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>52.2</v>
+        <v>38.9</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>986</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>46.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>463</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>81.8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>51.9</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5">
+        <v>464</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41.1</v>
+        <v>23.5</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6">
+        <v>465</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>23.7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7">
+        <v>467</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>40.799999999999997</v>
+        <v>29.4</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="A8">
+        <v>471</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
+      <c r="A9">
+        <v>472</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>26.6</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
+      <c r="A10">
+        <v>474</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>57.3</v>
+        <v>28.5</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11">
+        <v>476</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>63.7</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
+      <c r="A12">
+        <v>477</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>38.9</v>
+        <v>23.5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
+      <c r="A13">
+        <v>480</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>39.700000000000003</v>
+        <v>24.3</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="A14">
+        <v>461</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>26.8</v>
+        <v>31.2</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
+      <c r="A15">
+        <v>462</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>24.9</v>
+        <v>33.5</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
+      <c r="A16">
+        <v>466</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>39.200000000000003</v>
+        <v>30.5</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
+      <c r="A17">
+        <v>468</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>46.2</v>
+        <v>33.9</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
+      <c r="A18">
+        <v>469</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>36.9</v>
+        <v>37.4</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>30.9</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>23.5</v>
+        <v>35.9</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>23.7</v>
+        <v>31.1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>472</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>26.6</v>
+        <v>63.7</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>474</v>
+        <v>172</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>28.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>476</v>
+        <v>171</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>477</v>
+        <v>188</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="D27">
-        <v>23.5</v>
+      <c r="D27" s="2">
+        <v>32.9</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>480</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>24.3</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>31.2</v>
+        <v>99.3</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>462</v>
+        <v>176</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>33.5</v>
+        <v>81.8</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>466</v>
+        <v>177</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>30.5</v>
+        <v>52.2</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>468</v>
+        <v>179</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>33.9</v>
+        <v>51.9</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>469</v>
+      <c r="A33" s="3">
+        <v>180</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>37.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>470</v>
+        <v>181</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>30.9</v>
+        <v>41.1</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>473</v>
+        <v>182</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>35.9</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>475</v>
+        <v>183</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>31.1</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>31.2</v>
+        <v>26.8</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>479</v>
+        <v>185</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>34.299999999999997</v>
+        <v>24.9</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>57.3</v>
+      </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1324,19 +1384,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>36.9</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
@@ -1345,21 +1414,27 @@
       </c>
       <c r="I40" s="2">
         <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>32.9</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
@@ -1368,110 +1443,127 @@
       </c>
       <c r="I41" s="2">
         <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>41.7</v>
+      </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>0</v>
-      </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>174</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>175</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>174</v>
-      </c>
       <c r="B44">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>41.7</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
       <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>176</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>80.7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
         <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="I44" s="2">
-        <v>7</v>
-      </c>
-      <c r="J44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>176</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
       </c>
       <c r="I45" s="2">
         <v>4</v>
       </c>
-      <c r="J45" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>177</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>52.8</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1480,36 +1572,39 @@
         <v>2</v>
       </c>
       <c r="H46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46" s="2">
-        <v>2</v>
-      </c>
-      <c r="J46" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>179</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>52.7</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
       <c r="G47" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2">
         <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -1517,165 +1612,210 @@
         <v>180</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>41.2</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>27</v>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>181</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>44.1</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>27</v>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>182</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>44.1</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>27</v>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>183</v>
+      <c r="A51" s="3">
+        <v>989</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>44.5</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>184</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>43.4</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>27</v>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>185</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>38.9</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s">
-        <v>27</v>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>186</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>60.8</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>27</v>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>171</v>
+      <c r="A55" s="3">
+        <v>187</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -1684,27 +1824,27 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>36.9</v>
+        <v>63.1</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>172</v>
+      <c r="A56" s="3">
+        <v>188</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -1713,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>32.9</v>
+        <v>38.1</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1721,19 +1861,19 @@
       <c r="F56">
         <v>4</v>
       </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>173</v>
+      <c r="A57" s="3">
+        <v>461</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1742,18 +1882,24 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>41.7</v>
+        <v>32.9</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>174</v>
+      <c r="A58" s="3">
+        <v>462</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -1762,27 +1908,27 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>36.1</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2</v>
-      </c>
-      <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="2">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -1791,27 +1937,27 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>41.7</v>
+        <v>29.1</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>5</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>176</v>
+        <v>464</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1820,27 +1966,27 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <v>80.7</v>
+        <v>24.5</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>9</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="2">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>177</v>
+        <v>465</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -1849,24 +1995,27 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>52.8</v>
+        <v>25.3</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2</v>
-      </c>
-      <c r="H61" s="2">
-        <v>5</v>
-      </c>
-      <c r="I61" s="2">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>179</v>
+        <v>466</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -1875,27 +2024,27 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <v>52.7</v>
+        <v>31.3</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F62">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -1904,13 +2053,13 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>41.2</v>
+        <v>30.2</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1921,10 +2070,11 @@
       <c r="I63">
         <v>0</v>
       </c>
+      <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>181</v>
+        <v>468</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -1933,13 +2083,13 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <v>44.1</v>
+        <v>35.1</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1953,7 +2103,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>182</v>
+        <v>469</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -1962,13 +2112,13 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>44.1</v>
+        <v>39.6</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1982,7 +2132,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>989</v>
+        <v>470</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -1991,10 +2141,10 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>44.5</v>
+        <v>34.9</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -2008,13 +2158,10 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>184</v>
+        <v>472</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -2023,13 +2170,13 @@
         <v>9</v>
       </c>
       <c r="D67">
-        <v>43.4</v>
+        <v>27.5</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2043,7 +2190,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>185</v>
+        <v>473</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -2052,10 +2199,10 @@
         <v>9</v>
       </c>
       <c r="D68">
-        <v>38.9</v>
+        <v>37.9</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -2072,7 +2219,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -2081,27 +2228,27 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <v>60.8</v>
+        <v>30.3</v>
       </c>
       <c r="E69" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F69">
-        <v>7</v>
-      </c>
-      <c r="G69" s="2">
-        <v>2</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
-      <c r="I69" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>187</v>
+        <v>475</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -2110,13 +2257,13 @@
         <v>9</v>
       </c>
       <c r="D70">
-        <v>63.1</v>
+        <v>35.5</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2130,7 +2277,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>188</v>
+        <v>476</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -2139,13 +2286,13 @@
         <v>9</v>
       </c>
       <c r="D71">
-        <v>38.1</v>
+        <v>24.1</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2159,7 +2306,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2168,10 +2315,13 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>32.9</v>
+        <v>45.4</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2185,7 +2335,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -2194,10 +2344,10 @@
         <v>9</v>
       </c>
       <c r="D73">
-        <v>36.1</v>
+        <v>34.9</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -2214,7 +2364,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -2223,10 +2373,10 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>29.1</v>
+        <v>25.8</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -2243,452 +2393,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>464</v>
-      </c>
-      <c r="B75">
-        <v>6</v>
+        <v>986</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75">
-        <v>24.5</v>
-      </c>
-      <c r="E75" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>465</v>
-      </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <v>25.3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>466</v>
-      </c>
-      <c r="B77">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77">
-        <v>31.3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>467</v>
-      </c>
-      <c r="B78">
-        <v>6</v>
-      </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78">
-        <v>30.2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>468</v>
-      </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79">
-        <v>35.1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>469</v>
-      </c>
-      <c r="B80">
-        <v>6</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80">
-        <v>39.6</v>
-      </c>
-      <c r="E80" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>470</v>
-      </c>
-      <c r="B81">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81">
-        <v>34.9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81">
-        <v>4</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>472</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82">
-        <v>27.5</v>
-      </c>
-      <c r="E82" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82">
-        <v>3</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>473</v>
-      </c>
-      <c r="B83">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83">
-        <v>37.9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83">
-        <v>4</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>474</v>
-      </c>
-      <c r="B84">
-        <v>6</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84">
-        <v>30.3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84">
-        <v>4</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>475</v>
-      </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85">
-        <v>35.5</v>
-      </c>
-      <c r="E85" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85">
-        <v>4</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>476</v>
-      </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86">
-        <v>24.1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86">
-        <v>3</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>478</v>
-      </c>
-      <c r="B87">
-        <v>6</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87">
-        <v>45.4</v>
-      </c>
-      <c r="E87" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87">
-        <v>5</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>479</v>
-      </c>
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88">
-        <v>34.9</v>
-      </c>
-      <c r="E88" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88">
-        <v>4</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>480</v>
-      </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89">
-        <v>25.8</v>
-      </c>
-      <c r="E89" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>986</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90">
         <v>44.5</v>
       </c>
-      <c r="J90" t="s">
-        <v>29</v>
+      <c r="J75" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/tree_DBH_hollows/input/Plot 05.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 05.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D239306C-A8C5-1C4D-99E5-AE2D4E615ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9755D1D-4A62-5B4D-9579-315B96E629B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10100" yWindow="500" windowWidth="15660" windowHeight="16220" xr2:uid="{20E0FF59-B469-6A45-9CF2-1F0580860A0E}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCAA0E-3E0F-044F-9F2D-06DBCE6934B6}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>183</v>
+        <v>989</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>10</v>
@@ -2394,6 +2394,9 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>986</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
